--- a/data/Instances/InstancesS/outputS-5.xlsx
+++ b/data/Instances/InstancesS/outputS-5.xlsx
@@ -453,237 +453,237 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>57</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>66</t>
         </is>
       </c>
     </row>
@@ -702,9 +702,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -715,26 +713,20 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
@@ -760,65 +752,97 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>1</v>
       </c>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
       <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1</v>
+      </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -830,9 +854,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -841,9 +863,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -856,7 +876,9 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -874,7 +896,9 @@
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
@@ -885,7 +909,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -897,9 +921,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -914,22 +936,14 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
@@ -946,153 +960,165 @@
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
+      <c r="AX5" t="n">
+        <v>1</v>
+      </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
       <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
+      <c r="AO6" t="n">
+        <v>1</v>
+      </c>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AQ6" t="n">
+        <v>1</v>
+      </c>
       <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1</v>
+      </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="n">
@@ -1100,25 +1126,21 @@
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -1126,9 +1148,7 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1143,20 +1163,16 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
@@ -1168,7 +1184,9 @@
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
+      <c r="AS8" t="n">
+        <v>1</v>
+      </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
@@ -1179,7 +1197,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -1187,15 +1205,11 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1210,15 +1224,11 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
@@ -1238,290 +1248,248 @@
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
+      <c r="AX9" t="n">
+        <v>1</v>
+      </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="n">
         <v>1</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
       <c r="Z12" t="n">
         <v>1</v>
       </c>
-      <c r="AA12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
       <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
+      <c r="AJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1</v>
+      </c>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
+      <c r="AO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
+      <c r="AW12" t="n">
+        <v>1</v>
+      </c>
       <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
+      <c r="AY12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1533,9 +1501,7 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1550,20 +1516,16 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
@@ -1575,18 +1537,22 @@
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
+      <c r="AY13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1598,9 +1564,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1611,24 +1575,20 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
@@ -1640,7 +1600,9 @@
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
@@ -1651,7 +1613,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1663,9 +1625,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1680,25 +1640,19 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
@@ -1710,34 +1664,44 @@
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
+      <c r="AX15" t="n">
+        <v>1</v>
+      </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1746,72 +1710,72 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="n">
-        <v>1</v>
-      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
         <v>1</v>
       </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
       <c r="AC16" t="n">
         <v>1</v>
       </c>
-      <c r="AD16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
         <v>1</v>
       </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="n">
+        <v>1</v>
+      </c>
       <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="n">
         <v>1</v>
       </c>
       <c r="AN16" t="n">
         <v>1</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
+      <c r="AO16" t="n">
+        <v>1</v>
+      </c>
       <c r="AP16" t="n">
         <v>1</v>
       </c>
-      <c r="AQ16" t="inlineStr"/>
+      <c r="AQ16" t="n">
+        <v>1</v>
+      </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="n">
         <v>1</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="n">
         <v>1</v>
       </c>
@@ -1819,11 +1783,13 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1834,9 +1800,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1849,7 +1813,9 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
@@ -1867,7 +1833,9 @@
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
@@ -1878,11 +1846,13 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1890,9 +1860,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1903,24 +1871,22 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>1</v>
+      </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
@@ -1932,22 +1898,28 @@
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
+      <c r="AY18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1956,9 +1928,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1973,7 +1943,9 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>1</v>
+      </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
@@ -1991,22 +1963,28 @@
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
+      <c r="AS19" t="n">
+        <v>1</v>
+      </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
+      <c r="AY19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -2014,9 +1992,7 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -2031,17 +2007,13 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>1</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
@@ -2056,116 +2028,162 @@
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>1</v>
+      </c>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
+      <c r="AH21" t="n">
+        <v>1</v>
+      </c>
       <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1</v>
+      </c>
       <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
+      <c r="AM21" t="n">
+        <v>1</v>
+      </c>
       <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+      <c r="AO21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1</v>
+      </c>
       <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
+      <c r="AS21" t="n">
+        <v>1</v>
+      </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
+      <c r="AX21" t="n">
+        <v>1</v>
+      </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -2173,28 +2191,28 @@
       <c r="Y22" t="n">
         <v>1</v>
       </c>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
-      <c r="AF22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="n">
+        <v>1</v>
+      </c>
       <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1</v>
+      </c>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="n">
         <v>1</v>
@@ -2202,44 +2220,40 @@
       <c r="AN22" t="n">
         <v>1</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="n">
         <v>1</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="n">
         <v>1</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
-      <c r="AY22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -2248,13 +2262,9 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -2265,7 +2275,9 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>1</v>
+      </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -2274,9 +2286,7 @@
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
@@ -2285,22 +2295,28 @@
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
+      <c r="AY23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -2308,9 +2324,7 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -2325,49 +2339,47 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
+      <c r="AS24" t="n">
+        <v>1</v>
+      </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
+      <c r="AY24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -2375,9 +2387,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -2392,62 +2402,58 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>1</v>
+      </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
+      <c r="AS25" t="n">
+        <v>1</v>
+      </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
+      <c r="AY25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2462,7 +2468,9 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
@@ -2486,136 +2494,90 @@
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
+      <c r="AY26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1</v>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="n">
-        <v>1</v>
-      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="n">
-        <v>1</v>
-      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -2646,7 +2608,9 @@
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
+      <c r="AS28" t="n">
+        <v>1</v>
+      </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
@@ -2657,7 +2621,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -2669,9 +2633,7 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2686,22 +2648,16 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>1</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
@@ -2713,7 +2669,9 @@
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
+      <c r="AS29" t="n">
+        <v>1</v>
+      </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
@@ -2724,89 +2682,131 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
       <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1</v>
+      </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
+      <c r="AC30" t="n">
+        <v>1</v>
+      </c>
       <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
+      <c r="AH30" t="n">
+        <v>1</v>
+      </c>
       <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
+      <c r="AJ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
       <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
+      <c r="AO30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1</v>
+      </c>
       <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
+      <c r="AW30" t="n">
+        <v>1</v>
+      </c>
       <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
+      <c r="AY30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
-        <v>1</v>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
@@ -2846,11 +2846,13 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -2859,13 +2861,9 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2878,7 +2876,9 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
+      <c r="AA32" t="n">
+        <v>1</v>
+      </c>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
@@ -2896,7 +2896,9 @@
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
+      <c r="AS32" t="n">
+        <v>1</v>
+      </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
@@ -2907,11 +2909,13 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -2922,13 +2926,9 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
@@ -2939,7 +2939,9 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
+      <c r="AA33" t="n">
+        <v>1</v>
+      </c>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
@@ -2957,7 +2959,9 @@
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
+      <c r="AS33" t="n">
+        <v>1</v>
+      </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
@@ -2968,7 +2972,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -2981,17 +2985,11 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
@@ -3020,7 +3018,9 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
@@ -3031,11 +3031,13 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -3044,13 +3046,9 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -3063,7 +3061,9 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="AA35" t="n">
+        <v>1</v>
+      </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
@@ -3072,9 +3072,7 @@
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
@@ -3083,22 +3081,28 @@
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
+      <c r="AS35" t="n">
+        <v>1</v>
+      </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
+      <c r="AY35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -3106,9 +3110,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -3123,20 +3125,14 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
@@ -3148,7 +3144,9 @@
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
@@ -3159,7 +3157,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3171,9 +3169,7 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -3188,20 +3184,16 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="n">
+        <v>1</v>
+      </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
@@ -3213,7 +3205,9 @@
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="inlineStr"/>
@@ -3224,97 +3218,55 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="n">
-        <v>1</v>
-      </c>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="n">
-        <v>1</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1</v>
-      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="n">
         <v>1</v>
@@ -3323,88 +3275,118 @@
       <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="inlineStr"/>
+      <c r="Y39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE39" t="inlineStr"/>
+      <c r="AC39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
       <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="n">
+        <v>1</v>
+      </c>
       <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr"/>
+      <c r="AN39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1</v>
+      </c>
       <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
+      <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
       <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
-      <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
+      <c r="AW39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1</v>
+      </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -3412,9 +3394,7 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -3429,146 +3409,100 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="n">
+        <v>1</v>
+      </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
+      <c r="AY40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1</v>
-      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="n">
-        <v>1</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1</v>
-      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="n">
         <v>1</v>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr"/>
-      <c r="AV41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
-      <c r="AX41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="n">
         <v>1</v>
       </c>
@@ -3576,7 +3510,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -3588,9 +3522,7 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -3605,20 +3537,14 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
@@ -3641,11 +3567,13 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -3658,9 +3586,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -3671,7 +3597,9 @@
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
+      <c r="AA43" t="n">
+        <v>1</v>
+      </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
@@ -3689,7 +3617,9 @@
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
+      <c r="AS43" t="n">
+        <v>1</v>
+      </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
@@ -3700,18 +3630,18 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
         <v>1</v>
@@ -3719,10 +3649,10 @@
       <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -3732,44 +3662,50 @@
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="n">
-        <v>1</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1</v>
-      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="n">
-        <v>1</v>
-      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="n">
         <v>1</v>
       </c>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1</v>
+      </c>
       <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="n">
         <v>1</v>
       </c>
       <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="n">
+        <v>1</v>
+      </c>
       <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
+      <c r="AJ44" t="n">
+        <v>1</v>
+      </c>
       <c r="AK44" t="n">
         <v>1</v>
       </c>
-      <c r="AL44" t="inlineStr"/>
+      <c r="AL44" t="n">
+        <v>1</v>
+      </c>
       <c r="AM44" t="n">
         <v>1</v>
       </c>
@@ -3787,21 +3723,19 @@
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr"/>
-      <c r="AV44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="n">
+        <v>1</v>
+      </c>
       <c r="AX44" t="n">
         <v>1</v>
       </c>
-      <c r="AY44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -3829,9 +3763,7 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
@@ -3860,38 +3792,24 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -3899,65 +3817,39 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="n">
-        <v>1</v>
-      </c>
+      <c r="V46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="n">
         <v>1</v>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr"/>
-      <c r="AV46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
       <c r="AY46" t="n">
         <v>1</v>
       </c>
@@ -3965,7 +3857,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -3977,9 +3869,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>1</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -3990,31 +3880,25 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>1</v>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
@@ -4032,21 +3916,21 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -4061,27 +3945,19 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
-      <c r="AL48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
@@ -4092,95 +3968,63 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
-      <c r="AW48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr"/>
+      <c r="AX48" t="n">
+        <v>1</v>
+      </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
-        <v>1</v>
-      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="n">
-        <v>1</v>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="n">
-        <v>1</v>
-      </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="n">
-        <v>1</v>
-      </c>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="n">
@@ -4188,21 +4032,15 @@
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AU49" t="inlineStr"/>
-      <c r="AV49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
-      <c r="AX49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -4217,13 +4055,9 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
@@ -4234,7 +4068,9 @@
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
+      <c r="AA50" t="n">
+        <v>1</v>
+      </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
@@ -4252,7 +4088,9 @@
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr"/>
+      <c r="AS50" t="n">
+        <v>1</v>
+      </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="inlineStr"/>
@@ -4263,7 +4101,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -4275,9 +4113,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>1</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -4292,20 +4128,14 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
@@ -4317,7 +4147,9 @@
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
       <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr"/>
+      <c r="AS51" t="n">
+        <v>1</v>
+      </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="inlineStr"/>
@@ -4328,108 +4160,70 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1</v>
-      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
-      <c r="AP52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="n">
         <v>1</v>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr"/>
-      <c r="AV52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
-      <c r="AX52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4440,16 +4234,14 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -4461,167 +4253,129 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
         <v>1</v>
       </c>
-      <c r="T53" t="n">
-        <v>1</v>
-      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+      <c r="Y53" t="n">
+        <v>1</v>
+      </c>
       <c r="Z53" t="n">
         <v>1</v>
       </c>
       <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="n">
         <v>1</v>
       </c>
-      <c r="AD53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="n">
         <v>1</v>
       </c>
       <c r="AF53" t="n">
         <v>1</v>
       </c>
-      <c r="AG53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="n">
+        <v>1</v>
+      </c>
       <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
-      <c r="AL53" t="inlineStr"/>
+      <c r="AJ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1</v>
+      </c>
       <c r="AM53" t="n">
         <v>1</v>
       </c>
       <c r="AN53" t="inlineStr"/>
-      <c r="AO53" t="inlineStr"/>
+      <c r="AO53" t="n">
+        <v>1</v>
+      </c>
       <c r="AP53" t="n">
         <v>1</v>
       </c>
-      <c r="AQ53" t="inlineStr"/>
+      <c r="AQ53" t="n">
+        <v>1</v>
+      </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="n">
         <v>1</v>
       </c>
-      <c r="AT53" t="inlineStr"/>
+      <c r="AT53" t="n">
+        <v>1</v>
+      </c>
       <c r="AU53" t="inlineStr"/>
-      <c r="AV53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="n">
         <v>1</v>
       </c>
-      <c r="AY53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="n">
-        <v>1</v>
-      </c>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X54" t="n">
-        <v>1</v>
-      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="n">
         <v>1</v>
       </c>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="n">
@@ -4629,71 +4383,61 @@
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr"/>
-      <c r="AV54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="inlineStr"/>
-      <c r="AX54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
       </c>
-      <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="n">
         <v>1</v>
       </c>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="n">
-        <v>1</v>
-      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="n">
-        <v>1</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1</v>
-      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="n">
         <v>1</v>
@@ -4701,22 +4445,22 @@
       <c r="Z55" t="n">
         <v>1</v>
       </c>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="n">
         <v>1</v>
       </c>
       <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="n">
+        <v>1</v>
+      </c>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="n">
@@ -4726,9 +4470,7 @@
       <c r="AM55" t="n">
         <v>1</v>
       </c>
-      <c r="AN55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="n">
         <v>1</v>
@@ -4736,27 +4478,25 @@
       <c r="AQ55" t="n">
         <v>1</v>
       </c>
-      <c r="AR55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="n">
         <v>1</v>
       </c>
-      <c r="AT55" t="inlineStr"/>
+      <c r="AT55" t="n">
+        <v>1</v>
+      </c>
       <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="inlineStr"/>
       <c r="AX55" t="n">
         <v>1</v>
       </c>
-      <c r="AY55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4766,24 +4506,20 @@
         <v>1</v>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -4792,44 +4528,40 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="n">
-        <v>1</v>
-      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="n">
-        <v>1</v>
-      </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="n">
         <v>1</v>
       </c>
-      <c r="Z56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>1</v>
       </c>
-      <c r="AB56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="n">
         <v>1</v>
       </c>
-      <c r="AD56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="n">
         <v>1</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH56" t="inlineStr"/>
+      <c r="AF56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="n">
+        <v>1</v>
+      </c>
       <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="n">
         <v>1</v>
@@ -4842,7 +4574,9 @@
         <v>1</v>
       </c>
       <c r="AN56" t="inlineStr"/>
-      <c r="AO56" t="inlineStr"/>
+      <c r="AO56" t="n">
+        <v>1</v>
+      </c>
       <c r="AP56" t="n">
         <v>1</v>
       </c>
@@ -4853,109 +4587,69 @@
       <c r="AS56" t="n">
         <v>1</v>
       </c>
-      <c r="AT56" t="inlineStr"/>
+      <c r="AT56" t="n">
+        <v>1</v>
+      </c>
       <c r="AU56" t="inlineStr"/>
       <c r="AV56" t="inlineStr"/>
       <c r="AW56" t="inlineStr"/>
       <c r="AX56" t="n">
         <v>1</v>
       </c>
-      <c r="AY56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="n">
-        <v>1</v>
-      </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
         <v>1</v>
       </c>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="n">
         <v>1</v>
@@ -4964,9 +4658,7 @@
       <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="inlineStr"/>
-      <c r="AX57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX57" t="inlineStr"/>
       <c r="AY57" t="n">
         <v>1</v>
       </c>
@@ -5015,11 +4707,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -5030,11 +4722,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -5045,62 +4737,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5109,73 +4801,73 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5184,13 +4876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5199,28 +4891,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5229,28 +4921,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5259,28 +4951,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5289,28 +4981,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5319,28 +5011,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5349,13 +5041,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5364,58 +5056,58 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5424,103 +5116,103 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5529,13 +5221,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5544,43 +5236,43 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5589,58 +5281,58 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5649,103 +5341,103 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5754,28 +5446,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5784,28 +5476,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5814,13 +5506,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5829,22 +5521,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5895,7 +5587,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01894554551831262</v>
+        <v>0.003167892008038242</v>
       </c>
     </row>
     <row r="3">
@@ -5906,11 +5598,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7696842174231311</v>
+        <v>0.365841409139823</v>
       </c>
     </row>
     <row r="4">
@@ -5921,62 +5613,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6281955329647236</v>
+        <v>0.7974072090790557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8199394879004813</v>
+        <v>0.9716883082900805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4515900362909377</v>
+        <v>0.968815173661345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9793806038899064</v>
+        <v>0.6376308291249321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5985,13 +5677,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5166488433234606</v>
+        <v>0.4275837272686281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6000,13 +5692,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1723222547126504</v>
+        <v>0.001308915191245874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -6015,43 +5707,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7754340580349965</v>
+        <v>0.01444731601500702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02345351289816802</v>
+        <v>0.6637642928719034</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3867638884461614</v>
+        <v>0.9838636948547629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -6060,28 +5752,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02562928103546297</v>
+        <v>0.009076849259744302</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1725116856227786</v>
+        <v>0.03986187669668709</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -6090,13 +5782,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9821477540994071</v>
+        <v>0.6363657394032796</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -6105,13 +5797,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7432466447802069</v>
+        <v>0.9216000546871983</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -6120,13 +5812,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9399782652488804</v>
+        <v>0.03305891198278034</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -6135,13 +5827,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6260694332970713</v>
+        <v>0.9054725857925554</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -6150,13 +5842,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8267058917643664</v>
+        <v>0.02950654730047111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -6165,13 +5857,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1071712243610151</v>
+        <v>0.9708809055300348</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -6180,28 +5872,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7783444252175764</v>
+        <v>0.9949700846954586</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.742707660867112</v>
+        <v>0.8986672461221724</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -6210,13 +5902,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.499370734641979</v>
+        <v>0.9771339208949545</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -6225,13 +5917,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8226351076526996</v>
+        <v>0.9754188767792601</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -6240,43 +5932,43 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.06635237977837695</v>
+        <v>0.03053887642600924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03040720130809758</v>
+        <v>0.7910953912438357</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.825393120971972</v>
+        <v>0.2919525788344288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -6285,13 +5977,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.4677160581415009</v>
+        <v>0.8917309212902647</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6300,28 +5992,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7272360954910264</v>
+        <v>0.0295685385271352</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.04480128534170463</v>
+        <v>0.9823650251667229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6330,13 +6022,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02542463015783196</v>
+        <v>0.0138383091704539</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6345,28 +6037,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7415780682633885</v>
+        <v>0.6914790014859298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1162441734241446</v>
+        <v>0.9822641462200365</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6375,13 +6067,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.820788149487275</v>
+        <v>0.03471722199709817</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6390,28 +6082,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9923914266158034</v>
+        <v>0.9781520365271726</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8747163206798158</v>
+        <v>0.04013210660666933</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6420,28 +6112,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6380930152121571</v>
+        <v>0.006158637315661131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.8689836377202436</v>
+        <v>0.566546479527855</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6450,13 +6142,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01087247713406982</v>
+        <v>0.1380639568575467</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6465,13 +6157,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.2608661223287454</v>
+        <v>0.7742762684274854</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6480,13 +6172,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.6316745011976191</v>
+        <v>0.04683931945399451</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6495,13 +6187,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2718630637950201</v>
+        <v>0.4192438276588621</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6510,13 +6202,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.292425226621597</v>
+        <v>0.01826444436960365</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6525,28 +6217,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.9535557111730636</v>
+        <v>0.9738347214850597</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01702492666765477</v>
+        <v>0.01190310267670021</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6555,28 +6247,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9930254322770122</v>
+        <v>0.7177437611028895</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9697388888224966</v>
+        <v>0.9961718900950326</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6585,52 +6277,52 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.1828133910112304</v>
+        <v>0.984188766721267</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9440331389511049</v>
+        <v>0.7097910525106359</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.04179116330488176</v>
+        <v>0.5195579442381293</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0135223742220614</v>
+        <v>0.6920275007148304</v>
       </c>
     </row>
   </sheetData>
